--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.06.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.06.xlsx
@@ -67,18 +67,18 @@
     <t>כן, יואב.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>הוא הגיע אתך.</t>
+  </si>
+  <si>
     <t>gives-med</t>
   </si>
   <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>הוא הגיע אתך.</t>
-  </si>
-  <si>
     <t>הגענו אתמול כבר.</t>
   </si>
   <si>
@@ -112,151 +112,151 @@
     <t>אם זה לא לאחרונה?</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
+  </si>
+  <si>
+    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
+  </si>
+  <si>
+    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
+  </si>
+  <si>
+    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>ליואב?</t>
+  </si>
+  <si>
+    <t>ליואב סכרת?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
+  </si>
+  <si>
+    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
+  </si>
+  <si>
+    <t>אה כן.</t>
+  </si>
+  <si>
+    <t>מהבדיקות?</t>
+  </si>
+  <si>
+    <t>כן קיבלנו את הבדיקות, בדיקות דם.</t>
+  </si>
+  <si>
+    <t>משהו נבדק על ידי רופאים כבר וגם משהו מעלייך,</t>
+  </si>
+  <si>
+    <t>שעבר שבדק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן התייעצנו גם במרפאה של סכרת נעורים ושלחנו את זה ל להמטולוג זה, </t>
+  </si>
+  <si>
+    <t>זה החשש המרכזי כרגע לשם אנחנו חותרים לטפל  לכיוון הזה אנחנו מנסים ללכת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איך יכול להיות שיש לו סכרת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי אין לנו סכרת במשפחה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא לגמרי ילד רגיל כל הזמן איך </t>
+  </si>
+  <si>
+    <t>אני לא, אין לנו אף אחד במשפחה שיש לו סכרת.</t>
+  </si>
+  <si>
+    <t>אה כן יש, יש מקרים שזה, שזה מגיע האוט אוף דה בלו אה.</t>
+  </si>
+  <si>
+    <t>לילד בן חמש?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
+  </si>
+  <si>
+    <t>זה זה מעניין אותך לדעת.</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t>אני, אני יודעת מזה סכרת.</t>
+  </si>
+  <si>
+    <t>אה אוקי.</t>
+  </si>
+  <si>
+    <t>אני פשוט, אני לא אני בהלם כי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תראי בעיקרון את  כל הבדיקות יש לנו ואת כל האישורים יש לנו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם את רוצה ללכת לסקנד אפיניון זה אני יכולה לתת לך אמ </t>
+  </si>
+  <si>
+    <t>c-med/thera</t>
+  </si>
+  <si>
+    <t>מה שאני,</t>
+  </si>
+  <si>
+    <t>כמה זה במאה אחוז ה יכול להיות שיש פה טעות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה לא זה וודאי, זה וודאי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם את רוצה להיות שקטה בתור אימא אני אומרת לך את זה הייתי הולכת לשמוע עוד דעה או, או מ מ ממשהו מומחה לא יודעת מרפאת סכרת </t>
+  </si>
+  <si>
+    <t>אה אבל כן לצערי זה, זה אבל תראי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה מחלה אוטואימונית </t>
+  </si>
+  <si>
+    <t>לא יודעים.</t>
+  </si>
+  <si>
+    <t>מה שאת אומרת, משהו שעשינו עם התזונה, שלו שהיא לא תקנית.</t>
+  </si>
+  <si>
+    <t>לא.</t>
+  </si>
+  <si>
     <t>disagree</t>
-  </si>
-  <si>
-    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
-  </si>
-  <si>
-    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
-  </si>
-  <si>
-    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
-  </si>
-  <si>
-    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>ליואב?</t>
-  </si>
-  <si>
-    <t>ליואב סכרת?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
-  </si>
-  <si>
-    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
-  </si>
-  <si>
-    <t>אה כן.</t>
-  </si>
-  <si>
-    <t>מהבדיקות?</t>
-  </si>
-  <si>
-    <t>כן קיבלנו את הבדיקות, בדיקות דם.</t>
-  </si>
-  <si>
-    <t>משהו נבדק על ידי רופאים כבר וגם משהו מעלייך,</t>
-  </si>
-  <si>
-    <t>שעבר שבדק.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן התייעצנו גם במרפאה של סכרת נעורים ושלחנו את זה ל להמטולוג זה, </t>
-  </si>
-  <si>
-    <t>זה החשש המרכזי כרגע לשם אנחנו חותרים לטפל  לכיוון הזה אנחנו מנסים ללכת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איך יכול להיות שיש לו סכרת </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כי אין לנו סכרת במשפחה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא לגמרי ילד רגיל כל הזמן איך </t>
-  </si>
-  <si>
-    <t>אני לא, אין לנו אף אחד במשפחה שיש לו סכרת.</t>
-  </si>
-  <si>
-    <t>אה כן יש, יש מקרים שזה, שזה מגיע האוט אוף דה בלו אה.</t>
-  </si>
-  <si>
-    <t>לילד בן חמש?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
-  </si>
-  <si>
-    <t>זה זה מעניין אותך לדעת.</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>אני, אני יודעת מזה סכרת.</t>
-  </si>
-  <si>
-    <t>אה אוקי.</t>
-  </si>
-  <si>
-    <t>אני פשוט, אני לא אני בהלם כי.</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תראי בעיקרון את  כל הבדיקות יש לנו ואת כל האישורים יש לנו </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם את רוצה ללכת לסקנד אפיניון זה אני יכולה לתת לך אמ </t>
-  </si>
-  <si>
-    <t>c-med/thera</t>
-  </si>
-  <si>
-    <t>מה שאני,</t>
-  </si>
-  <si>
-    <t>כמה זה במאה אחוז ה יכול להיות שיש פה טעות.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה לא זה וודאי, זה וודאי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם את רוצה להיות שקטה בתור אימא אני אומרת לך את זה הייתי הולכת לשמוע עוד דעה או, או מ מ ממשהו מומחה לא יודעת מרפאת סכרת </t>
-  </si>
-  <si>
-    <t>אה אבל כן לצערי זה, זה אבל תראי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה מחלה אוטואימונית </t>
-  </si>
-  <si>
-    <t>לא יודעים.</t>
-  </si>
-  <si>
-    <t>מה שאת אומרת, משהו שעשינו עם התזונה, שלו שהיא לא תקנית.</t>
-  </si>
-  <si>
-    <t>לא.</t>
   </si>
   <si>
     <t xml:space="preserve">לא, לא, לא זה שום דבר שקשור אליכם </t>
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -849,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -877,10 +877,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -905,7 +905,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -919,10 +919,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -947,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -978,7 +978,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1006,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1045,7 +1045,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1073,7 +1073,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1087,10 +1087,10 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1101,10 +1101,10 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1129,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1157,7 +1157,7 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1199,7 +1199,7 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1227,10 +1227,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1255,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -1283,10 +1283,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1297,10 +1297,10 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1325,10 +1325,10 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1339,7 +1339,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -1353,10 +1353,10 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1367,7 +1367,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1384,7 +1384,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1395,10 +1395,10 @@
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1437,7 +1437,7 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -1451,10 +1451,10 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
         <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
         <v>70</v>
-      </c>
-      <c r="B55" t="s">
-        <v>71</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
         <v>34</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
         <v>80</v>
-      </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" t="s">
-        <v>32</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1650,7 +1650,7 @@
         <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1692,7 +1692,7 @@
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1703,10 +1703,10 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1773,7 +1773,7 @@
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -1801,10 +1801,10 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1818,7 +1818,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1832,7 +1832,7 @@
         <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1857,7 +1857,7 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1885,7 +1885,7 @@
         <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -1902,7 +1902,7 @@
         <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1913,10 +1913,10 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1941,7 +1941,7 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -1955,10 +1955,10 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2025,10 +2025,10 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2039,7 +2039,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2067,7 +2067,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2098,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2126,7 +2126,7 @@
         <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2210,7 +2210,7 @@
         <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2224,7 +2224,7 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
